--- a/popsize/morrate.xlsx
+++ b/popsize/morrate.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,18 +473,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="D3" s="4">
-        <f>ABS((B3/1000)-1)</f>
-        <v>0.99739999999999995</v>
+        <f>1-(B3/1000)</f>
+        <v>0.99770000000000003</v>
       </c>
       <c r="E3" s="5">
-        <f>ABS((C3/1000)-1)</f>
-        <v>0.99790000000000001</v>
+        <f>1-(C3/1000)</f>
+        <v>0.99809999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,18 +492,18 @@
         <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D17" si="0">ABS((B4/1000)-1)</f>
-        <v>0.99960000000000004</v>
+        <f>1-(B4/1000)</f>
+        <v>0.99970000000000003</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E17" si="1">ABS((C4/1000)-1)</f>
-        <v>0.99970000000000003</v>
+        <f t="shared" ref="E4:E17" si="0">1-(C4/1000)</f>
+        <v>0.99980000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -517,11 +517,11 @@
         <v>0.2</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f>1-(B5/1000)</f>
         <v>0.99960000000000004</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.99980000000000002</v>
       </c>
     </row>
@@ -530,18 +530,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.99850000000000005</v>
+        <f t="shared" ref="D6:D17" si="1">1-(B6/1000)</f>
+        <v>0.99890000000000001</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>0.99939999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.99960000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,18 +549,18 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.99709999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.99770000000000003</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.99919999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.99939999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -568,18 +568,18 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>5.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="C8" s="2">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.99490000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.99639999999999995</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.99860000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.99890000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,18 +587,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.99270000000000003</v>
+        <f t="shared" si="1"/>
+        <v>0.99409999999999998</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.998</v>
+        <f t="shared" si="0"/>
+        <v>0.99819999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,18 +606,18 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>8.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="C10" s="2">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.99180000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.99250000000000005</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.99750000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.99770000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,18 +625,18 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="C11" s="2">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.98899999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.99150000000000005</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.99670000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.99709999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,18 +644,18 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>14.8</v>
+        <v>11.2</v>
       </c>
       <c r="C12" s="2">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.98519999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.98880000000000001</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.99550000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.99629999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,18 +663,18 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>20.9</v>
+        <v>15.5</v>
       </c>
       <c r="C13" s="2">
-        <v>6.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97909999999999997</v>
+        <f t="shared" si="1"/>
+        <v>0.98450000000000004</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.99350000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.99490000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,18 +682,18 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>28.9</v>
+        <v>22.1</v>
       </c>
       <c r="C14" s="2">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97109999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.97789999999999999</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
+        <f t="shared" si="0"/>
+        <v>0.99229999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,18 +701,18 @@
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>38.799999999999997</v>
+        <v>32.6</v>
       </c>
       <c r="C15" s="2">
-        <v>13.5</v>
+        <v>11.4</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.96120000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.96740000000000004</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.98650000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.98860000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,18 +720,18 @@
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>54</v>
+        <v>40.9</v>
       </c>
       <c r="C16" s="2">
-        <v>21.4</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.94599999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.95909999999999995</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.97860000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.98340000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,18 +739,18 @@
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>97.9</v>
+        <v>89.5</v>
       </c>
       <c r="C17" s="2">
-        <v>72.5</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.90210000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.91049999999999998</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.92749999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.93300000000000005</v>
       </c>
     </row>
   </sheetData>
